--- a/hedcode/data/spreadsheet_data/ExcelOneSheet_short_form.xlsx
+++ b/hedcode/data/spreadsheet_data/ExcelOneSheet_short_form.xlsx
@@ -1,41 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HEDExamples\hed-examples\hedcode\data\spreadsheet_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EFE5BC-FBD8-4427-BC17-4A98BCBC79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="28492" windowHeight="15112" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LKT 8HED3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LKT 8HED3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Event code</t>
+  </si>
+  <si>
+    <t>Short label</t>
+  </si>
+  <si>
+    <t>Long name</t>
+  </si>
+  <si>
+    <t>Description in text</t>
+  </si>
+  <si>
+    <t>HED tags</t>
+  </si>
+  <si>
+    <t>Label/PerturbLeft</t>
+  </si>
+  <si>
+    <t>Description/PerturbCarToLeft</t>
+  </si>
+  <si>
+    <t>Vehicle undergoes a perturbation to left.</t>
+  </si>
+  <si>
+    <t>Experiment-control, Experimental-stimulus, (Controller-agent, (Operate, Car, (Turn, Leftward)))</t>
+  </si>
+  <si>
+    <t>Label/PerturbRight</t>
+  </si>
+  <si>
+    <t>Description/PerturbCarToRight</t>
+  </si>
+  <si>
+    <t>Vehicle undergoes a perturbation to right.</t>
+  </si>
+  <si>
+    <t>Experiment-control, Experimental-stimulus, (Controller-agent, (Operate, Car, (Turn, Rightward)))</t>
+  </si>
+  <si>
+    <t>Label/ResponseOnset</t>
+  </si>
+  <si>
+    <t>Description/DriverStartsToCorrect</t>
+  </si>
+  <si>
+    <t>Subject starts to respond to perturbation by steering vehicle back to center of the lane.</t>
+  </si>
+  <si>
+    <t>Agent-action, Participant-response, Correction, ((Human-agent, Experiment-participant), (Modify, (Car, Angle)))</t>
+  </si>
+  <si>
+    <t>Label/ResponseOffset</t>
+  </si>
+  <si>
+    <t>Description/DriverStopsCorrecting</t>
+  </si>
+  <si>
+    <t>Agent-action, Participant-response, (Halt, Correction)</t>
+  </si>
+  <si>
+    <t>Subject completes response to perturbation having steered the vehicle back to the center of the lane. Normally this would be tagged with temporal scope but avoiding definitions here.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,92 +127,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,155 +419,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="15.3828125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.07421875" customWidth="1" style="2" min="2" max="3"/>
-    <col width="57.3828125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="41.921875" customWidth="1" style="2" min="5" max="5"/>
-    <col width="8.53515625" customWidth="1" min="6" max="1026"/>
+    <col min="1" max="1" width="15.3828125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.07421875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.3828125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.921875" style="2" customWidth="1"/>
+    <col min="6" max="1026" width="8.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Event code</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Short label</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Long name</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Description in text</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>HED tags</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" ht="43.75" customHeight="1">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>251</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Label/PerturbLeft</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Description/PerturbCarToLeft</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle undergoes a perturbation to left.</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Experiment-control, Experimental-stimulus, (Controller-agent, (Operate, Car, (Turn, Leftward)))</t>
-        </is>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="43.75" customHeight="1">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>252</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Label/PerturbRight</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Description/PerturbCarToRight</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle undergoes a perturbation to right.</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Experiment-control, Experimental-stimulus, (Controller-agent, (Operate, Car, (Turn, Rightward)))</t>
-        </is>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="47.05" customHeight="1">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" ht="47.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>253</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Label/ResponseOnset</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Description/DriverStartsToCorrect</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Subject starts to respond to perturbation by steering vehicle back to center of the lane.</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Agent-action, Participant-response, Correction, ((Human-agent, Experiment-participant), (Modify, (Car, Angle)))</t>
-        </is>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="43.75" customHeight="1">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>254</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Label/ResponseOffset</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Description/DriverStopsCorrecting</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Subject completes response to perturbation having steered the vehicle back to the center of the lane. Normally this would be tagged with temporal scope,but avoiding definitions here.</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Agent-action, Participant-response, (Halt, Correction)</t>
-        </is>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>